--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_677.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_677.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32515-d271304-Reviews-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>78</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Rodeway-Inn-Near-LA-Live.h2150412.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_677.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_677.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,709 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r581248902-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>32515</t>
+  </si>
+  <si>
+    <t>271304</t>
+  </si>
+  <si>
+    <t>581248902</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>Nice property near the LA LIVE</t>
+  </si>
+  <si>
+    <t>Its a motel around the area which is close to LA Live. Its kind of safe.  We got two rooms that would connect internally which was the good part however, wasn't happy about the breakfast.  The breakfast was not refilled.The rooms had old pillows with lumps and the bed was not much comfortable.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r529668484-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>529668484</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Hotel needs cleaning top to bottom!!!</t>
+  </si>
+  <si>
+    <t>This property is in desperate need of a top to bottom steam cleaning and some TLC. The carpets are filthy and smell of urine, etc. Rooms that are supposed to have refrigerators often do not, some of the beds are hard as a rock while others are sagging and falling apart, and nearly all the blow dryers are broken or missing entirely. The evening staff can be surly or downright rude, and while the manager/partner seems polite, he and his associates are grossly neglecting this property. Choice Hotels should investigate this place and make them crack their wallets open and clean this place up!!! Disgusting!!!</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r518190332-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>518190332</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>Never been treated so rudely before!</t>
+  </si>
+  <si>
+    <t>I have never been treated so badly and rudely! I was greeted by reception by a man who was abusing me because my card didn't work on the reservation. I closed the account that day as it was an American card and didn't think about anything else. The man said my card declined today so he canceled my reservation without calling or emailing or anything. I told him I had no idea but here is the money and he still was very rude to me! Then over charged me $27 because I was now a 'walk in'. I have no idea I had done anything wrong but to be abused in stead of someone explaining the situation was uncalled for! Soooooo rude I left in tears! The man did not even tell me where my room was or if there was breakfast or laundry or anything. I would have left on the spot if I had a car. But I was stuck here.... never again will I come back!!!! And never recommend this hotel! No one should ever be treated so rudely!!! Completely upset and has put my trip off to a horrible start!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I have never been treated so badly and rudely! I was greeted by reception by a man who was abusing me because my card didn't work on the reservation. I closed the account that day as it was an American card and didn't think about anything else. The man said my card declined today so he canceled my reservation without calling or emailing or anything. I told him I had no idea but here is the money and he still was very rude to me! Then over charged me $27 because I was now a 'walk in'. I have no idea I had done anything wrong but to be abused in stead of someone explaining the situation was uncalled for! Soooooo rude I left in tears! The man did not even tell me where my room was or if there was breakfast or laundry or anything. I would have left on the spot if I had a car. But I was stuck here.... never again will I come back!!!! And never recommend this hotel! No one should ever be treated so rudely!!! Completely upset and has put my trip off to a horrible start!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r488235763-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>488235763</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>Newly remodeled. Great service. Furniture lacking.</t>
+  </si>
+  <si>
+    <t>Establishment had newly remodeled exterior. Looks a lot nicer from the outside than typical Rodeway Inns. In my hasty departure, I forgot my lunch bag. They greeted me warmly and had it ready for retrieval when I stopped by after my meeting to pick it up. More modern furniture including a table for doing work would have been helpful. Get new furniture for the rooms and offer a continental breakfast for more stars.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r455205029-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>455205029</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t>Very bad experience!</t>
+  </si>
+  <si>
+    <t>Well overall it has bad I mean it is a cheap hotel but comoon if they have cleanears what are they doing! The room was dirty the sheets were used and the bathroom stinked ! never again! not even in your dreams!</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r444324553-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>444324553</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t>Worst Hotel Experience I've Ever Suffered Through</t>
+  </si>
+  <si>
+    <t>The bathwater in the photo is from previous hotel guest, hotel told me to "reach in and unplug it to drain it [myself.]" and refused to change reservation to a new room. In this same first room, neither the television nor the telephone worked. When we spoke to the front desk, the clerk refused to check us into another room. I immediately called Expedia to see if there was a way to change the reservation, as the clerk had charged my card before I saw the condition of the room (and I knew I was already trapped.) After an hour of haggling with Expedia, the front desk reluctantly switched us into another room, which was also in deplorable condition-- the sink was broken (see attached video), as was the bathtub. The telephone did not work in this room, either. As it was midnight and I do not know LA, we stayed in the room for ONE night under duress because we had nowhere else to go and because the front desk had already charged us for the entirety of the reservation without ever providing a receipt and for which the conditions of the hotel were unsanitary, unhygienic, and to be frank-- unsafe. 
+The next morning I checked out and left the keys with the STILL UNHELPFUL front desk. Expedia continued to try to contest the charge on my behalf but the front desk refused to answer the phone and engage...The bathwater in the photo is from previous hotel guest, hotel told me to "reach in and unplug it to drain it [myself.]" and refused to change reservation to a new room. In this same first room, neither the television nor the telephone worked. When we spoke to the front desk, the clerk refused to check us into another room. I immediately called Expedia to see if there was a way to change the reservation, as the clerk had charged my card before I saw the condition of the room (and I knew I was already trapped.) After an hour of haggling with Expedia, the front desk reluctantly switched us into another room, which was also in deplorable condition-- the sink was broken (see attached video), as was the bathtub. The telephone did not work in this room, either. As it was midnight and I do not know LA, we stayed in the room for ONE night under duress because we had nowhere else to go and because the front desk had already charged us for the entirety of the reservation without ever providing a receipt and for which the conditions of the hotel were unsanitary, unhygienic, and to be frank-- unsafe. The next morning I checked out and left the keys with the STILL UNHELPFUL front desk. Expedia continued to try to contest the charge on my behalf but the front desk refused to answer the phone and engage with Expedia. At 11 pm the next night, the front desk called me to ask if I was still there-- when I'd already checked out and returned the keys.  At every turn, Rodeway Inn was dishonest, unfriendly, unhelpful, and had a "We already charged you, what are you gonna do about it?" attitude, and refused to provide me with any paperwork with regard to this reservation, for which their hotel falsely advertised its condition and amenities and preys upon visitors unfamiliar with the area to simply "give up" and accept the conditions and/or the charges. When I was returning keys, the front desk was also lying to a guest about having an elevator (they don't) which is a clear ADA violation. Save yourself the stress, don't bother with this fleabag motel!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>The bathwater in the photo is from previous hotel guest, hotel told me to "reach in and unplug it to drain it [myself.]" and refused to change reservation to a new room. In this same first room, neither the television nor the telephone worked. When we spoke to the front desk, the clerk refused to check us into another room. I immediately called Expedia to see if there was a way to change the reservation, as the clerk had charged my card before I saw the condition of the room (and I knew I was already trapped.) After an hour of haggling with Expedia, the front desk reluctantly switched us into another room, which was also in deplorable condition-- the sink was broken (see attached video), as was the bathtub. The telephone did not work in this room, either. As it was midnight and I do not know LA, we stayed in the room for ONE night under duress because we had nowhere else to go and because the front desk had already charged us for the entirety of the reservation without ever providing a receipt and for which the conditions of the hotel were unsanitary, unhygienic, and to be frank-- unsafe. 
+The next morning I checked out and left the keys with the STILL UNHELPFUL front desk. Expedia continued to try to contest the charge on my behalf but the front desk refused to answer the phone and engage...The bathwater in the photo is from previous hotel guest, hotel told me to "reach in and unplug it to drain it [myself.]" and refused to change reservation to a new room. In this same first room, neither the television nor the telephone worked. When we spoke to the front desk, the clerk refused to check us into another room. I immediately called Expedia to see if there was a way to change the reservation, as the clerk had charged my card before I saw the condition of the room (and I knew I was already trapped.) After an hour of haggling with Expedia, the front desk reluctantly switched us into another room, which was also in deplorable condition-- the sink was broken (see attached video), as was the bathtub. The telephone did not work in this room, either. As it was midnight and I do not know LA, we stayed in the room for ONE night under duress because we had nowhere else to go and because the front desk had already charged us for the entirety of the reservation without ever providing a receipt and for which the conditions of the hotel were unsanitary, unhygienic, and to be frank-- unsafe. The next morning I checked out and left the keys with the STILL UNHELPFUL front desk. Expedia continued to try to contest the charge on my behalf but the front desk refused to answer the phone and engage with Expedia. At 11 pm the next night, the front desk called me to ask if I was still there-- when I'd already checked out and returned the keys.  At every turn, Rodeway Inn was dishonest, unfriendly, unhelpful, and had a "We already charged you, what are you gonna do about it?" attitude, and refused to provide me with any paperwork with regard to this reservation, for which their hotel falsely advertised its condition and amenities and preys upon visitors unfamiliar with the area to simply "give up" and accept the conditions and/or the charges. When I was returning keys, the front desk was also lying to a guest about having an elevator (they don't) which is a clear ADA violation. Save yourself the stress, don't bother with this fleabag motel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r409039202-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>409039202</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Not worth it!!!</t>
+  </si>
+  <si>
+    <t>We decided to skimp on the cheapest hotel we could find (and still it was over $100) and this was it. I wish I would've taken pictures. The carpeting was black from the dirt, two of the drawers in the dresser were missing,  the desk drawer was missing, and the bed had a huge indention where you could literally feel the springs when you laid down.   The air conditioning worked and the bathroom was somewhat clean.  I will never skimp on a hotel ever again after this experience. The parking was horrible and the neighborhood was not that great. Many people we heard complaining due to the same conditions in their room.  Keep looking for other hotels before you decide on this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We decided to skimp on the cheapest hotel we could find (and still it was over $100) and this was it. I wish I would've taken pictures. The carpeting was black from the dirt, two of the drawers in the dresser were missing,  the desk drawer was missing, and the bed had a huge indention where you could literally feel the springs when you laid down.   The air conditioning worked and the bathroom was somewhat clean.  I will never skimp on a hotel ever again after this experience. The parking was horrible and the neighborhood was not that great. Many people we heard complaining due to the same conditions in their room.  Keep looking for other hotels before you decide on this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r402945271-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>402945271</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Pretty bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for 1 week. It's pretty basic and didn't cost loads compaired to most of LA air con was good. The area is not the best tho all taxi drivers where asking why I'm staying here with a lot of gangs hanging around. I walked to the city at dusk an only saw gangs and homeless. I would definitely avoid if you can! ! Also states it's near LA live , it's a good 20 min drive so not exactly near I would say ! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r402843293-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>402843293</t>
+  </si>
+  <si>
+    <t>Breakfast was a joke, very basic room  and Area wasnt that great</t>
+  </si>
+  <si>
+    <t>I am not here to rate the hotel badly as i slept fine there and it was basic which is all my friend and i needed. However, on the bus to the hotel someone said we were staying in the "ghetto" which didnt put us in a good starting position! We got there and they didnt have our booking. The room was very basic but there was air con and en suite. The breakfast was cereal (without milk) and lemonade... why lemonade i have no idea. We didnt have a microwave in our room but we could use the one in the breakfast room which made our stay better. The room was farily noisy coming from the corridor. we stayed there for 4 nights and I was very eager to leave asap. It was okay because there was 2 of us but i wouldnt feel comfortable walking around the are by myself.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I am not here to rate the hotel badly as i slept fine there and it was basic which is all my friend and i needed. However, on the bus to the hotel someone said we were staying in the "ghetto" which didnt put us in a good starting position! We got there and they didnt have our booking. The room was very basic but there was air con and en suite. The breakfast was cereal (without milk) and lemonade... why lemonade i have no idea. We didnt have a microwave in our room but we could use the one in the breakfast room which made our stay better. The room was farily noisy coming from the corridor. we stayed there for 4 nights and I was very eager to leave asap. It was okay because there was 2 of us but i wouldnt feel comfortable walking around the are by myself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r374530347-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>374530347</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Decent hotel</t>
+  </si>
+  <si>
+    <t>This is decent hotel for a fair price in LA. The room is big considering the price. The bed was not very good, but nothing terrible that you wont get some sleep. The bathroom was clean and decent. There was no hair dryer. The free wifi only works in some areas within the hotel. There is no wifi at the room. They said this was a temporary situation. Anyway if you want to travel with low fair this is a good option. It takes you near 25min to get to Hollywood. Watch out for the traffic, LA traffic can get awful!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r363341212-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>363341212</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>The location is perfect, in terms of having both downtown LA, Hollywood and Redondo Beach within reasonable reach.</t>
+  </si>
+  <si>
+    <t>All the rooms I have been having through the years, are very clean and the staff is eager to help you in whatever else you need. This hotel gives you GOOD VALUE for your buck.You simply reach all those fancy places, without having to pay the premium you would have to pay, if having the same quality hotel on say; Sunset Boulevard.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r359405617-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>359405617</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Very Smelly</t>
+  </si>
+  <si>
+    <t>The shower didn't work well. The hotel had a weird stench to it that was very uncomfortable. The walls are very thin... you can hear people in the next room talking. Luckily my wife and I were very tired and passed out as soon as we got there. I have stayed at cheap Inns before but this was by far my worst experience.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r289524206-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>289524206</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Filthy</t>
+  </si>
+  <si>
+    <t>Cons: not enough parking, everything was dirty from the carpet to whatever was splattered on the microwave, paper thin walls, customer service, way overpriced for what you actually get, not in a nice area at all! Deceiving online pictures of the actual motel, Rock hard bed.Pros: I only stayed one night only to sleep.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r280956962-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>280956962</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Attn ; management &amp; staff</t>
+  </si>
+  <si>
+    <t>Some observations during my stay in this hotel. I was so  disappointed because the room was  dirty, and filty inside the bathroom as well. No enough towels,  no fridge,   the guy who was in  front desk was so rude his name " ash" he  dont have hospitality at all.  I can not recommend this hotel to my friends.   Carpet so disgusting.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r260981056-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>260981056</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Horrible!</t>
+  </si>
+  <si>
+    <t>This Place is getto, dirty, and the people that stay here are up to no good. The carpet was nasty, tv's are small, bed was dirty. The price for this hotel should be $49. I stayed in a few motels in L.A. and this is by far the worst one. Worst experience ever!</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r230110909-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>230110909</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>Do not stay here !</t>
+  </si>
+  <si>
+    <t>Horrible hotel , dodgy part of town , fag stains in bed sheets and I got bitten by a beg bud and we only stayed a hour whilst we figured out where else we could go ! Poor quality bed/ pillows etc and noisy guests . Not recommended at all , plenty of other places to stay for a similar price</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r193120787-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>193120787</t>
+  </si>
+  <si>
+    <t>02/04/2014</t>
+  </si>
+  <si>
+    <t>Excellent stay and very friendly staff.</t>
+  </si>
+  <si>
+    <t>Stayed here for 6 nights due to having work in downtown LA Convention Center. Located just 5 miles away. Checkin was smooth and quick. Room was upstairs and nicely furnished and bath room was very clean. TV was old style. One of the best wifi connection I have seen in a long while.Their front staff was always eager to help, specially Mr Russo - he knows whats going around and is a real problem solver. Situated in a not very posh area but around the corner on a back parallel Pacific Ave is the main market with very good eating options. They have inside parking in a court yard kind of setting and it can be tight for a large vehicle but Mr Russo always managed to arrange for a parking spot. Breakfast was nothing much, but we were out early and came back late and had breakfast elsewhere. Its not the Ritz like someone else here has said but you can not beat the price and the convenience of being close to LA Downtown. Will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for 6 nights due to having work in downtown LA Convention Center. Located just 5 miles away. Checkin was smooth and quick. Room was upstairs and nicely furnished and bath room was very clean. TV was old style. One of the best wifi connection I have seen in a long while.Their front staff was always eager to help, specially Mr Russo - he knows whats going around and is a real problem solver. Situated in a not very posh area but around the corner on a back parallel Pacific Ave is the main market with very good eating options. They have inside parking in a court yard kind of setting and it can be tight for a large vehicle but Mr Russo always managed to arrange for a parking spot. Breakfast was nothing much, but we were out early and came back late and had breakfast elsewhere. Its not the Ritz like someone else here has said but you can not beat the price and the convenience of being close to LA Downtown. Will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r189908838-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>189908838</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>What you Pay, is what you get!</t>
+  </si>
+  <si>
+    <t>The location was very convenient to where I was getting to the very next morning. (Staple Center) I took a Chance of the location only because of the price range it was at and I was on a budget, plus is was just my Husband &amp; I and one night wouldn't hurt. But I must say, it was in a location South of LA so of course you wouldn't feel comfortable walking across to the Store some snacks or water. The room was out dated, there was a crockroach in the bathroom, the tiles needed to be replaced, bed was out of date, I didn't dare try to sleep under the covers, however I just laid on top of the comforters.  Once we checked in  I already knew I wasn't going to be comfortable! I was like a chicken peeking around--checking out the place. BUT I survived! We checked out at 5:00 am for the LA Half Marathon. Defiantly not a place where I will stay again or bring my children, but it was a roof over our heads for the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>The location was very convenient to where I was getting to the very next morning. (Staple Center) I took a Chance of the location only because of the price range it was at and I was on a budget, plus is was just my Husband &amp; I and one night wouldn't hurt. But I must say, it was in a location South of LA so of course you wouldn't feel comfortable walking across to the Store some snacks or water. The room was out dated, there was a crockroach in the bathroom, the tiles needed to be replaced, bed was out of date, I didn't dare try to sleep under the covers, however I just laid on top of the comforters.  Once we checked in  I already knew I wasn't going to be comfortable! I was like a chicken peeking around--checking out the place. BUT I survived! We checked out at 5:00 am for the LA Half Marathon. Defiantly not a place where I will stay again or bring my children, but it was a roof over our heads for the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r185248771-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>185248771</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>Whe found bunches of hair everywhere, and when I said bunches I really mean it,  the place doesn't look safe at all, curtains were dirty and ripped, when we leave the building looking for a place to eat, the housekeeper came into our room and she just changed the towels she didnt swip or did anything else, also we saw spiderwebs on the corners of the walls, if you are looking for this place go to sleep under a bridge first I would be the same.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r165797616-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>165797616</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>For the price, this is as good as it gets</t>
+  </si>
+  <si>
+    <t>For $50 in Los Angeles, I was extremely happy with this property.   Good housekeeping, great front desk people.   Extremely safe considering!!  Tons of places to eat nearby.  Area was good, was scetchy driving-in from LA then it turned into a clean nice area.The only complaint is wifi signal was faint.  Still, at this rate it's a 10!</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r164720740-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>164720740</t>
+  </si>
+  <si>
+    <t>06/21/2013</t>
+  </si>
+  <si>
+    <t>Best choice!</t>
+  </si>
+  <si>
+    <t>I am a frequent traveler and I have to say that this hotel has been by far the best hotel in this area. Customer service is wonderful and the rooms are really neat and comfortable. I would definitely recommend this hotel, Best choice!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r147138969-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>147138969</t>
+  </si>
+  <si>
+    <t>12/10/2012</t>
+  </si>
+  <si>
+    <t>Sketchy neighborhood</t>
+  </si>
+  <si>
+    <t>This hotel is indeed pet friendly with a $10/night fee per pet. The hotel is very cheap. However, the neighborhood for us was not safe. We heard sirens all night. My husband wanted to go walk our dog, but I refused to let him go. There were homeless everywhere and way too much sketchy activity. The hotel room itself was not disgusting, but it had an unpleasant odor. Thank goodness we only booked one night here. We were so happy to leave the next morning. We didn't stay to try the breakfast, so I cannot comment on that. Next time I am just going to dish out more money to stay in a safe hotel closer to LA. The drive to LA was only about 10 miles. We won't be staying here again and definitely don't recommend it to anyone. Unless you don't mind be in the ghetto, and staying in a run down hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>This hotel is indeed pet friendly with a $10/night fee per pet. The hotel is very cheap. However, the neighborhood for us was not safe. We heard sirens all night. My husband wanted to go walk our dog, but I refused to let him go. There were homeless everywhere and way too much sketchy activity. The hotel room itself was not disgusting, but it had an unpleasant odor. Thank goodness we only booked one night here. We were so happy to leave the next morning. We didn't stay to try the breakfast, so I cannot comment on that. Next time I am just going to dish out more money to stay in a safe hotel closer to LA. The drive to LA was only about 10 miles. We won't be staying here again and definitely don't recommend it to anyone. Unless you don't mind be in the ghetto, and staying in a run down hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r144127341-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>144127341</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>Pretty disappointed with this one.</t>
+  </si>
+  <si>
+    <t>The room was extremely cramped and there was no desk or table/chairs.  They advertised "free breakfast" and it was pretty much a scam.  This hotel has no designated area for a breakfast/kitchen.  They converted a regular hotel room to be the supposed breakfast area. There, they had stale doughnuts bought from a grocery store, along with 2 types of cereal. They also had a coffee and juice machine, which when we tried to get the beverages, they were watered down. We had stayed at a Rodeway Inn before and were expecting to have at least the essentials they had, but NO! Do not count on this factor to persuade your decision to book there.  Also, the parking is terrible because it's very limited and if you arrive late you'll have a hard time finding a spot.  The bed was a bit hard and uncomfortable. I had to kill two bugs in the bathroom.  The shower had no water pressure and it's a stand up shower, so there's no tub. When you try to stand outside of the shower to wait for the temperature to adjust, it sprays water all over the floor. The neighborhood is a little ghetto and made me feel a bit unsafe at night.  The price was cheap, they had free wi-fi access and cable TV channels.  I would not rate this a 2 star establishment. I've stayed at much better properties with that rating and for...The room was extremely cramped and there was no desk or table/chairs.  They advertised "free breakfast" and it was pretty much a scam.  This hotel has no designated area for a breakfast/kitchen.  They converted a regular hotel room to be the supposed breakfast area. There, they had stale doughnuts bought from a grocery store, along with 2 types of cereal. They also had a coffee and juice machine, which when we tried to get the beverages, they were watered down. We had stayed at a Rodeway Inn before and were expecting to have at least the essentials they had, but NO! Do not count on this factor to persuade your decision to book there.  Also, the parking is terrible because it's very limited and if you arrive late you'll have a hard time finding a spot.  The bed was a bit hard and uncomfortable. I had to kill two bugs in the bathroom.  The shower had no water pressure and it's a stand up shower, so there's no tub. When you try to stand outside of the shower to wait for the temperature to adjust, it sprays water all over the floor. The neighborhood is a little ghetto and made me feel a bit unsafe at night.  The price was cheap, they had free wi-fi access and cable TV channels.  I would not rate this a 2 star establishment. I've stayed at much better properties with that rating and for the price point.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>The room was extremely cramped and there was no desk or table/chairs.  They advertised "free breakfast" and it was pretty much a scam.  This hotel has no designated area for a breakfast/kitchen.  They converted a regular hotel room to be the supposed breakfast area. There, they had stale doughnuts bought from a grocery store, along with 2 types of cereal. They also had a coffee and juice machine, which when we tried to get the beverages, they were watered down. We had stayed at a Rodeway Inn before and were expecting to have at least the essentials they had, but NO! Do not count on this factor to persuade your decision to book there.  Also, the parking is terrible because it's very limited and if you arrive late you'll have a hard time finding a spot.  The bed was a bit hard and uncomfortable. I had to kill two bugs in the bathroom.  The shower had no water pressure and it's a stand up shower, so there's no tub. When you try to stand outside of the shower to wait for the temperature to adjust, it sprays water all over the floor. The neighborhood is a little ghetto and made me feel a bit unsafe at night.  The price was cheap, they had free wi-fi access and cable TV channels.  I would not rate this a 2 star establishment. I've stayed at much better properties with that rating and for...The room was extremely cramped and there was no desk or table/chairs.  They advertised "free breakfast" and it was pretty much a scam.  This hotel has no designated area for a breakfast/kitchen.  They converted a regular hotel room to be the supposed breakfast area. There, they had stale doughnuts bought from a grocery store, along with 2 types of cereal. They also had a coffee and juice machine, which when we tried to get the beverages, they were watered down. We had stayed at a Rodeway Inn before and were expecting to have at least the essentials they had, but NO! Do not count on this factor to persuade your decision to book there.  Also, the parking is terrible because it's very limited and if you arrive late you'll have a hard time finding a spot.  The bed was a bit hard and uncomfortable. I had to kill two bugs in the bathroom.  The shower had no water pressure and it's a stand up shower, so there's no tub. When you try to stand outside of the shower to wait for the temperature to adjust, it sprays water all over the floor. The neighborhood is a little ghetto and made me feel a bit unsafe at night.  The price was cheap, they had free wi-fi access and cable TV channels.  I would not rate this a 2 star establishment. I've stayed at much better properties with that rating and for the price point.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r140031734-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>140031734</t>
+  </si>
+  <si>
+    <t>09/11/2012</t>
+  </si>
+  <si>
+    <t>Cheap, no frills and pet friendly!</t>
+  </si>
+  <si>
+    <t>Not bad, clean and economical but the rooms were a bit dated. However, the carpet was a little stained/darken by the asphalt oil, trailing into the room. The room has a fridge, microwave and Internet access is by tickets. If you have a lot of devices (i.e. iphone, ipods, ipads, laptops, etc.), you'll need more than one ticket! Breakfast consist of package pastries and bulk cereals with milk available.  The surrounding area was fine! …more like a quiet middle-class community; filled with working people. I walked our dog every morning and evening around the block and found the all houses and yard well kept; no sign of un-employment or vandals. The motel is good for an inexpensive place to stay when visiting the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Not bad, clean and economical but the rooms were a bit dated. However, the carpet was a little stained/darken by the asphalt oil, trailing into the room. The room has a fridge, microwave and Internet access is by tickets. If you have a lot of devices (i.e. iphone, ipods, ipads, laptops, etc.), you'll need more than one ticket! Breakfast consist of package pastries and bulk cereals with milk available.  The surrounding area was fine! …more like a quiet middle-class community; filled with working people. I walked our dog every morning and evening around the block and found the all houses and yard well kept; no sign of un-employment or vandals. The motel is good for an inexpensive place to stay when visiting the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r135470011-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>135470011</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>USC Student. Dog Friendly!</t>
+  </si>
+  <si>
+    <t>First of all, the hotel offered an outrageously cheap rate for my 2 night stay after I got kicked out of student housing early.  2nd. Had to bring my puppy to which the friendly front desk staff waved the $10 a night fee, simply to be pleasant.  3rd. Clean rooms, don't know what other reviews have been complaining about but the place gives you all you need for a short term stay.  Nicely renovated bed set/other amenities.  All in all, great service, great price, convenient parking/wifi/pet accomodation.  Would definitely stay here again!</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r133761389-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>133761389</t>
+  </si>
+  <si>
+    <t>07/08/2012</t>
+  </si>
+  <si>
+    <t>TERRIBLE!</t>
+  </si>
+  <si>
+    <t>Worst hotel/motel that I've been to.  I've usually relied on reviews and this one is so wrong.......if I can give no star I will definitely do so but I have to give a star to make a review.   The room is so small, the floor carpet is dirty....and this is so NOT acceptable...... used condom on the floor!  I reported to the front desk in the morning and left to go on sight seeing but after we came back the condom is still there.....terrible!  If you can avoid this place, please do yourself a favor.  I think the people who give possitive reviewed on this place are the people who works here.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Worst hotel/motel that I've been to.  I've usually relied on reviews and this one is so wrong.......if I can give no star I will definitely do so but I have to give a star to make a review.   The room is so small, the floor carpet is dirty....and this is so NOT acceptable...... used condom on the floor!  I reported to the front desk in the morning and left to go on sight seeing but after we came back the condom is still there.....terrible!  If you can avoid this place, please do yourself a favor.  I think the people who give possitive reviewed on this place are the people who works here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r123508239-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>123508239</t>
+  </si>
+  <si>
+    <t>01/23/2012</t>
+  </si>
+  <si>
+    <t>Comment:</t>
+  </si>
+  <si>
+    <t>I am so greatfull to came to Rodeway Inn any time I need to be here for personal matters, because; of the hospitality and the welcome these people make feel any time I visit this place is awesome!!!!! I did not find it in any other places around here...</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r120513588-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>120513588</t>
+  </si>
+  <si>
+    <t>11/12/2011</t>
+  </si>
+  <si>
+    <t>Much better than expected</t>
+  </si>
+  <si>
+    <t>My room looked brand new, with granite in bathroom, good mattress, nice color scheme...much better than Motel 6 for less money. Free wireless access and breakfast.  Pet friendly.  I'll come back when I want to visit museums in LA.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r116828389-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>116828389</t>
+  </si>
+  <si>
+    <t>08/16/2011</t>
+  </si>
+  <si>
+    <t>Genuinely very sweet staff</t>
+  </si>
+  <si>
+    <t>Ok, so it is not a glamorous motel and the location is a bit industrial, but I needed somewhere inexpensive to stay and it was just fine for the price.  The front desk staff were so very nice, with genuine smiles and cheery attitudue and the upstairs veranda was a nice place to sit with a glass of wine in the evening.  The interior parking helped me feel secure about the safety of my car.  I'd stay here again if the opportunity presented itself again.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r115271145-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>115271145</t>
+  </si>
+  <si>
+    <t>07/11/2011</t>
+  </si>
+  <si>
+    <t>Not bad for the price!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was a bit worried after reading these reviews. Place was not bad for the price. The room was cleaned, linens were fresh, parking was odd but free, a mini fridge was included, it's in walking distance to Ihop, AMPM, and other restaurants. It was not a bad area. Average urban LA. SO don't believe everything you read, it wasn't as bad as how some of these people made it out to be. Only problem I had was the room didn't have a hair dryer or coffee maker. Other than that it was pleasant stay. Once again for the price you cannot complain. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r78863826-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>78863826</t>
+  </si>
+  <si>
+    <t>09/08/2010</t>
+  </si>
+  <si>
+    <t>MOST HORRENDOUS PLACE. AWFUL CUSTOMER SERVICE. STAY FAR FAR AWAYYYYYYYY!!!!!!</t>
+  </si>
+  <si>
+    <t>1) their check in time is 3pm. We arrive at 2pm ask to check in early and they said we couldn't do so because our room was being cleaned. Finally at 3pm We get our key, go to our room, and walk into a utterly filthy room. The bed was unmade, dirty cups and trash on the floor and counters. Obviously, The room was never "being cleaned." Finally after having to show the Front Desk Attendant the dirty room, he gave us a new room.
+2) We drop our luggage inside and head straight back to the car to spend the day in Long Beach. We return at about 10pm and attempt to turn in for the night, but in the sheets is what looks like fleas or some sort of bed bug. I go to the front desk and ask for a clean sheet to put over the bed and an extra pillow. The desk attendant claims that it is against policy to give me an extra sheet. He told me that I must be lying about not checking the bed when we arrived and that if I had complained earlier, then he would have changed rooms for me again. He then told me to go back to my room. I asked again if I could please have a sheet, so that I could go to sleep (by this time it's nearly 11:15pm) and he proceeded to tell me...1) their check in time is 3pm. We arrive at 2pm ask to check in early and they said we couldn't do so because our room was being cleaned. Finally at 3pm We get our key, go to our room, and walk into a utterly filthy room. The bed was unmade, dirty cups and trash on the floor and counters. Obviously, The room was never "being cleaned." Finally after having to show the Front Desk Attendant the dirty room, he gave us a new room.2) We drop our luggage inside and head straight back to the car to spend the day in Long Beach. We return at about 10pm and attempt to turn in for the night, but in the sheets is what looks like fleas or some sort of bed bug. I go to the front desk and ask for a clean sheet to put over the bed and an extra pillow. The desk attendant claims that it is against policy to give me an extra sheet. He told me that I must be lying about not checking the bed when we arrived and that if I had complained earlier, then he would have changed rooms for me again. He then told me to go back to my room. I asked again if I could please have a sheet, so that I could go to sleep (by this time it's nearly 11:15pm) and he proceeded to tell me that since I have a "bad attitude" I can wait till he's "ready" to give me the sheet and pillow. Completely disgusted with the lack of hospitality, I went back to the room and waited an 20 minutes before he finally came with a clean sheet and two extra pillows.3) The pillows he gave us had no pillow cases and one had a stain the size of a dinner plate that looked like blood. Furious, my mother brought the pillows back to the desk and requested pillow cases. The man claimed he "could not get any because it is against policy." They argued back and forth for about another 20 minutes, escalating to a point where the desk attendant stated he was going to "slap her if she didn't shut up". Finally another attendant appeared and settled the two. The new attendant then retrieved two pillow cases and gave them to us. We are not picky, annoying travelers. We are just a mother and a daughter visiting LA. I have never experienced such bad customer service in my entire life. I feel violated and honestly very very embarrassed. Do NOT come here, it may actually be a nice little place if they didn't have such horrendous staff.Please, please, please... make the best choice. DO NOT STAY HERE.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>1) their check in time is 3pm. We arrive at 2pm ask to check in early and they said we couldn't do so because our room was being cleaned. Finally at 3pm We get our key, go to our room, and walk into a utterly filthy room. The bed was unmade, dirty cups and trash on the floor and counters. Obviously, The room was never "being cleaned." Finally after having to show the Front Desk Attendant the dirty room, he gave us a new room.
+2) We drop our luggage inside and head straight back to the car to spend the day in Long Beach. We return at about 10pm and attempt to turn in for the night, but in the sheets is what looks like fleas or some sort of bed bug. I go to the front desk and ask for a clean sheet to put over the bed and an extra pillow. The desk attendant claims that it is against policy to give me an extra sheet. He told me that I must be lying about not checking the bed when we arrived and that if I had complained earlier, then he would have changed rooms for me again. He then told me to go back to my room. I asked again if I could please have a sheet, so that I could go to sleep (by this time it's nearly 11:15pm) and he proceeded to tell me...1) their check in time is 3pm. We arrive at 2pm ask to check in early and they said we couldn't do so because our room was being cleaned. Finally at 3pm We get our key, go to our room, and walk into a utterly filthy room. The bed was unmade, dirty cups and trash on the floor and counters. Obviously, The room was never "being cleaned." Finally after having to show the Front Desk Attendant the dirty room, he gave us a new room.2) We drop our luggage inside and head straight back to the car to spend the day in Long Beach. We return at about 10pm and attempt to turn in for the night, but in the sheets is what looks like fleas or some sort of bed bug. I go to the front desk and ask for a clean sheet to put over the bed and an extra pillow. The desk attendant claims that it is against policy to give me an extra sheet. He told me that I must be lying about not checking the bed when we arrived and that if I had complained earlier, then he would have changed rooms for me again. He then told me to go back to my room. I asked again if I could please have a sheet, so that I could go to sleep (by this time it's nearly 11:15pm) and he proceeded to tell me that since I have a "bad attitude" I can wait till he's "ready" to give me the sheet and pillow. Completely disgusted with the lack of hospitality, I went back to the room and waited an 20 minutes before he finally came with a clean sheet and two extra pillows.3) The pillows he gave us had no pillow cases and one had a stain the size of a dinner plate that looked like blood. Furious, my mother brought the pillows back to the desk and requested pillow cases. The man claimed he "could not get any because it is against policy." They argued back and forth for about another 20 minutes, escalating to a point where the desk attendant stated he was going to "slap her if she didn't shut up". Finally another attendant appeared and settled the two. The new attendant then retrieved two pillow cases and gave them to us. We are not picky, annoying travelers. We are just a mother and a daughter visiting LA. I have never experienced such bad customer service in my entire life. I feel violated and honestly very very embarrassed. Do NOT come here, it may actually be a nice little place if they didn't have such horrendous staff.Please, please, please... make the best choice. DO NOT STAY HERE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r72791491-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>72791491</t>
+  </si>
+  <si>
+    <t>07/28/2010</t>
+  </si>
+  <si>
+    <t>Rodeway Beauty</t>
+  </si>
+  <si>
+    <t>Wow!!! I was so impressed with the beauty of this Hotel.  Granite-top furniture, granite sink vanity &amp; shower, beautiful crown moulding and designer paint throughout.  It was super clean and very quiet.  Very courteous staff.  The best Hotel I've ever stayed in at this price.  I will definitely be back....soon!</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r70657038-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>70657038</t>
+  </si>
+  <si>
+    <t>07/12/2010</t>
+  </si>
+  <si>
+    <t>you get what you pay for and less..</t>
+  </si>
+  <si>
+    <t>Room smelledBed comforter was stainedRoom was tinyTowels were dingyWires hung from ceiling where fire alarm should have beenTV picture was horribleWater went everywhere when showered</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r39683782-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>39683782</t>
+  </si>
+  <si>
+    <t>09/03/2009</t>
+  </si>
+  <si>
+    <t>dirty.Never, don't recommend</t>
+  </si>
+  <si>
+    <t>Do not replace quilt,Do not give towel properlyso dirtySing at 1 floor on weekend night and drinks and has party</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r30842033-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>30842033</t>
+  </si>
+  <si>
+    <t>05/26/2009</t>
+  </si>
+  <si>
+    <t>My Favorite Place to Stay in LA area</t>
+  </si>
+  <si>
+    <t>This was my company’s third long-term stay at the Rodeway Inn near LA Live and each stay has been excellent. The staff is very friendly and outgoing and tries to make your stay as comfortable as possible. I was given a nice king room that had a courtyard view, and my co-workers were sharing a double queen room.  This hotel is a good choice for business travelers who want to stay with all comfort at great rates. The rates are very attractive, and what you get is a good deal for the facilities available.  My company does a lot of conventions and we switch hotels from the cramp hotels with no parking lot and high rates in downtown LA to this one.  It should be called the Rodeway Inn Convention Center since it’s so close to it and there are a lot of people from there, from what I have seen.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>This was my company’s third long-term stay at the Rodeway Inn near LA Live and each stay has been excellent. The staff is very friendly and outgoing and tries to make your stay as comfortable as possible. I was given a nice king room that had a courtyard view, and my co-workers were sharing a double queen room.  This hotel is a good choice for business travelers who want to stay with all comfort at great rates. The rates are very attractive, and what you get is a good deal for the facilities available.  My company does a lot of conventions and we switch hotels from the cramp hotels with no parking lot and high rates in downtown LA to this one.  It should be called the Rodeway Inn Convention Center since it’s so close to it and there are a lot of people from there, from what I have seen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r30314435-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>30314435</t>
+  </si>
+  <si>
+    <t>05/19/2009</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>I have been staying here for the past week and it has been a pleasant stay.  The staff is friendly and very helpful; I am here on business and meeting with a few new clients and invited my clients over for a meeting on this beautiful deck with a great astrosphere.  I asked David at the front desk about a refrigerator and a microwave and he said they have them for a small fee but since he had a few that were not in use currently he went ahead and had the maintenance man "Francisco" deliver it within 10 mins of our conversation.  It is nice of him to do that.  I am going to be here for another 2 weeks and staying here the next time I’m in town.  I highly recommend this place, and  the price was great with a lot of free amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been staying here for the past week and it has been a pleasant stay.  The staff is friendly and very helpful; I am here on business and meeting with a few new clients and invited my clients over for a meeting on this beautiful deck with a great astrosphere.  I asked David at the front desk about a refrigerator and a microwave and he said they have them for a small fee but since he had a few that were not in use currently he went ahead and had the maintenance man "Francisco" deliver it within 10 mins of our conversation.  It is nice of him to do that.  I am going to be here for another 2 weeks and staying here the next time I’m in town.  I highly recommend this place, and  the price was great with a lot of free amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r20757469-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
+  </si>
+  <si>
+    <t>20757469</t>
+  </si>
+  <si>
+    <t>10/09/2008</t>
+  </si>
+  <si>
+    <t>Clean, Nice</t>
+  </si>
+  <si>
+    <t>Excellent! Stayed there for the weekend to go to LA Detour festival.PRICE: $44/night for 2 people in queen bed. UNBEATABLE! PROS: Very clean, friendly staff, rooms in excellent condition. Bathroom renovated, super-nice sheets and bed. Slept really well!Fell in love with the place. Great location, you can take the bus to downtown LA! Delicious mexican seafood restaurant around the corner.CONS:Not the safest-looking neighborhood, poor immigrant community. Walls paper-thin I could hear neighbor's television. Only 6 channels on TV, no MTV! (although yes  HBO!) Shower leaks onto floor.</t>
+  </si>
+  <si>
+    <t>October 2008</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1351,2325 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>182</v>
+      </c>
+      <c r="O23" t="s">
+        <v>93</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>192</v>
+      </c>
+      <c r="J25" t="s">
+        <v>193</v>
+      </c>
+      <c r="K25" t="s">
+        <v>194</v>
+      </c>
+      <c r="L25" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>196</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" t="s">
+        <v>206</v>
+      </c>
+      <c r="K27" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>209</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>212</v>
+      </c>
+      <c r="J28" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" t="s">
+        <v>214</v>
+      </c>
+      <c r="L28" t="s">
+        <v>215</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>216</v>
+      </c>
+      <c r="O28" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>222</v>
+      </c>
+      <c r="O29" t="s">
+        <v>93</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" t="s">
+        <v>226</v>
+      </c>
+      <c r="L30" t="s">
+        <v>227</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>228</v>
+      </c>
+      <c r="O30" t="s">
+        <v>67</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>230</v>
+      </c>
+      <c r="J31" t="s">
+        <v>231</v>
+      </c>
+      <c r="K31" t="s">
+        <v>232</v>
+      </c>
+      <c r="L31" t="s">
+        <v>233</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>234</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>235</v>
+      </c>
+      <c r="J32" t="s">
+        <v>236</v>
+      </c>
+      <c r="K32" t="s">
+        <v>237</v>
+      </c>
+      <c r="L32" t="s">
+        <v>238</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>239</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>242</v>
+      </c>
+      <c r="J33" t="s">
+        <v>243</v>
+      </c>
+      <c r="K33" t="s">
+        <v>244</v>
+      </c>
+      <c r="L33" t="s">
+        <v>245</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>246</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>247</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>248</v>
+      </c>
+      <c r="J34" t="s">
+        <v>249</v>
+      </c>
+      <c r="K34" t="s">
+        <v>250</v>
+      </c>
+      <c r="L34" t="s">
+        <v>251</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>246</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>253</v>
+      </c>
+      <c r="J35" t="s">
+        <v>254</v>
+      </c>
+      <c r="K35" t="s">
+        <v>255</v>
+      </c>
+      <c r="L35" t="s">
+        <v>256</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>257</v>
+      </c>
+      <c r="O35" t="s">
+        <v>105</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>258</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>259</v>
+      </c>
+      <c r="J36" t="s">
+        <v>260</v>
+      </c>
+      <c r="K36" t="s">
+        <v>261</v>
+      </c>
+      <c r="L36" t="s">
+        <v>262</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>263</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>266</v>
+      </c>
+      <c r="J37" t="s">
+        <v>267</v>
+      </c>
+      <c r="K37" t="s">
+        <v>268</v>
+      </c>
+      <c r="L37" t="s">
+        <v>269</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>263</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>50608</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>271</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>272</v>
+      </c>
+      <c r="J38" t="s">
+        <v>273</v>
+      </c>
+      <c r="K38" t="s">
+        <v>274</v>
+      </c>
+      <c r="L38" t="s">
+        <v>275</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>276</v>
+      </c>
+      <c r="O38" t="s">
+        <v>93</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_677.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_677.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="314">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Ashlesh</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>David E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r529668484-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Naomi R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r518190332-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>I have never been treated so badly and rudely! I was greeted by reception by a man who was abusing me because my card didn't work on the reservation. I closed the account that day as it was an American card and didn't think about anything else. The man said my card declined today so he canceled my reservation without calling or emailing or anything. I told him I had no idea but here is the money and he still was very rude to me! Then over charged me $27 because I was now a 'walk in'. I have no idea I had done anything wrong but to be abused in stead of someone explaining the situation was uncalled for! Soooooo rude I left in tears! The man did not even tell me where my room was or if there was breakfast or laundry or anything. I would have left on the spot if I had a car. But I was stuck here.... never again will I come back!!!! And never recommend this hotel! No one should ever be treated so rudely!!! Completely upset and has put my trip off to a horrible start!More</t>
   </si>
   <si>
+    <t>David S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r488235763-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>Establishment had newly remodeled exterior. Looks a lot nicer from the outside than typical Rodeway Inns. In my hasty departure, I forgot my lunch bag. They greeted me warmly and had it ready for retrieval when I stopped by after my meeting to pick it up. More modern furniture including a table for doing work would have been helpful. Get new furniture for the rooms and offer a continental breakfast for more stars.</t>
   </si>
   <si>
+    <t>anniehilts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r455205029-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -256,6 +271,9 @@
   </si>
   <si>
     <t>October 2016</t>
+  </si>
+  <si>
+    <t>Allie M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r444324553-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
@@ -281,6 +299,9 @@
 The next morning I checked out and left the keys with the STILL UNHELPFUL front desk. Expedia continued to try to contest the charge on my behalf but the front desk refused to answer the phone and engage...The bathwater in the photo is from previous hotel guest, hotel told me to "reach in and unplug it to drain it [myself.]" and refused to change reservation to a new room. In this same first room, neither the television nor the telephone worked. When we spoke to the front desk, the clerk refused to check us into another room. I immediately called Expedia to see if there was a way to change the reservation, as the clerk had charged my card before I saw the condition of the room (and I knew I was already trapped.) After an hour of haggling with Expedia, the front desk reluctantly switched us into another room, which was also in deplorable condition-- the sink was broken (see attached video), as was the bathtub. The telephone did not work in this room, either. As it was midnight and I do not know LA, we stayed in the room for ONE night under duress because we had nowhere else to go and because the front desk had already charged us for the entirety of the reservation without ever providing a receipt and for which the conditions of the hotel were unsanitary, unhygienic, and to be frank-- unsafe. The next morning I checked out and left the keys with the STILL UNHELPFUL front desk. Expedia continued to try to contest the charge on my behalf but the front desk refused to answer the phone and engage with Expedia. At 11 pm the next night, the front desk called me to ask if I was still there-- when I'd already checked out and returned the keys.  At every turn, Rodeway Inn was dishonest, unfriendly, unhelpful, and had a "We already charged you, what are you gonna do about it?" attitude, and refused to provide me with any paperwork with regard to this reservation, for which their hotel falsely advertised its condition and amenities and preys upon visitors unfamiliar with the area to simply "give up" and accept the conditions and/or the charges. When I was returning keys, the front desk was also lying to a guest about having an elevator (they don't) which is a clear ADA violation. Save yourself the stress, don't bother with this fleabag motel!More</t>
   </si>
   <si>
+    <t>2xsthelove</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r409039202-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -305,6 +326,9 @@
     <t>We decided to skimp on the cheapest hotel we could find (and still it was over $100) and this was it. I wish I would've taken pictures. The carpeting was black from the dirt, two of the drawers in the dresser were missing,  the desk drawer was missing, and the bed had a huge indention where you could literally feel the springs when you laid down.   The air conditioning worked and the bathroom was somewhat clean.  I will never skimp on a hotel ever again after this experience. The parking was horrible and the neighborhood was not that great. Many people we heard complaining due to the same conditions in their room.  Keep looking for other hotels before you decide on this one.More</t>
   </si>
   <si>
+    <t>Edd D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r402945271-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -320,6 +344,9 @@
     <t xml:space="preserve">Stayed here for 1 week. It's pretty basic and didn't cost loads compaired to most of LA air con was good. The area is not the best tho all taxi drivers where asking why I'm staying here with a lot of gangs hanging around. I walked to the city at dusk an only saw gangs and homeless. I would definitely avoid if you can! ! Also states it's near LA live , it's a good 20 min drive so not exactly near I would say ! </t>
   </si>
   <si>
+    <t>char99m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r402843293-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -341,6 +368,9 @@
     <t>I am not here to rate the hotel badly as i slept fine there and it was basic which is all my friend and i needed. However, on the bus to the hotel someone said we were staying in the "ghetto" which didnt put us in a good starting position! We got there and they didnt have our booking. The room was very basic but there was air con and en suite. The breakfast was cereal (without milk) and lemonade... why lemonade i have no idea. We didnt have a microwave in our room but we could use the one in the breakfast room which made our stay better. The room was farily noisy coming from the corridor. we stayed there for 4 nights and I was very eager to leave asap. It was okay because there was 2 of us but i wouldnt feel comfortable walking around the are by myself.More</t>
   </si>
   <si>
+    <t>Laura C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r374530347-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -356,6 +386,9 @@
     <t>This is decent hotel for a fair price in LA. The room is big considering the price. The bed was not very good, but nothing terrible that you wont get some sleep. The bathroom was clean and decent. There was no hair dryer. The free wifi only works in some areas within the hotel. There is no wifi at the room. They said this was a temporary situation. Anyway if you want to travel with low fair this is a good option. It takes you near 25min to get to Hollywood. Watch out for the traffic, LA traffic can get awful!</t>
   </si>
   <si>
+    <t>Per M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r363341212-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -374,6 +407,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Jonathan G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r359405617-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -392,6 +428,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>lina R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r289524206-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -410,6 +449,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>junbriggz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r280956962-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -428,6 +470,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Lety I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r260981056-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -446,6 +491,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>griffsterGriffster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r230110909-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -461,6 +509,9 @@
     <t>Horrible hotel , dodgy part of town , fag stains in bed sheets and I got bitten by a beg bud and we only stayed a hour whilst we figured out where else we could go ! Poor quality bed/ pillows etc and noisy guests . Not recommended at all , plenty of other places to stay for a similar price</t>
   </si>
   <si>
+    <t>D B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r193120787-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -482,6 +533,9 @@
     <t>Stayed here for 6 nights due to having work in downtown LA Convention Center. Located just 5 miles away. Checkin was smooth and quick. Room was upstairs and nicely furnished and bath room was very clean. TV was old style. One of the best wifi connection I have seen in a long while.Their front staff was always eager to help, specially Mr Russo - he knows whats going around and is a real problem solver. Situated in a not very posh area but around the corner on a back parallel Pacific Ave is the main market with very good eating options. They have inside parking in a court yard kind of setting and it can be tight for a large vehicle but Mr Russo always managed to arrange for a parking spot. Breakfast was nothing much, but we were out early and came back late and had breakfast elsewhere. Its not the Ritz like someone else here has said but you can not beat the price and the convenience of being close to LA Downtown. Will stay here again.More</t>
   </si>
   <si>
+    <t>Deandra M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r189908838-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -503,6 +557,9 @@
     <t>The location was very convenient to where I was getting to the very next morning. (Staple Center) I took a Chance of the location only because of the price range it was at and I was on a budget, plus is was just my Husband &amp; I and one night wouldn't hurt. But I must say, it was in a location South of LA so of course you wouldn't feel comfortable walking across to the Store some snacks or water. The room was out dated, there was a crockroach in the bathroom, the tiles needed to be replaced, bed was out of date, I didn't dare try to sleep under the covers, however I just laid on top of the comforters.  Once we checked in  I already knew I wasn't going to be comfortable! I was like a chicken peeking around--checking out the place. BUT I survived! We checked out at 5:00 am for the LA Half Marathon. Defiantly not a place where I will stay again or bring my children, but it was a roof over our heads for the night.More</t>
   </si>
   <si>
+    <t>travelersinluv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r185248771-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -518,6 +575,9 @@
     <t>Whe found bunches of hair everywhere, and when I said bunches I really mean it,  the place doesn't look safe at all, curtains were dirty and ripped, when we leave the building looking for a place to eat, the housekeeper came into our room and she just changed the towels she didnt swip or did anything else, also we saw spiderwebs on the corners of the walls, if you are looking for this place go to sleep under a bridge first I would be the same.</t>
   </si>
   <si>
+    <t>davrodrg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r165797616-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -536,6 +596,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>padillaless825</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r164720740-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -551,6 +614,9 @@
     <t>I am a frequent traveler and I have to say that this hotel has been by far the best hotel in this area. Customer service is wonderful and the rooms are really neat and comfortable. I would definitely recommend this hotel, Best choice!</t>
   </si>
   <si>
+    <t>ObsessedTraveler805</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r147138969-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -572,6 +638,9 @@
     <t>This hotel is indeed pet friendly with a $10/night fee per pet. The hotel is very cheap. However, the neighborhood for us was not safe. We heard sirens all night. My husband wanted to go walk our dog, but I refused to let him go. There were homeless everywhere and way too much sketchy activity. The hotel room itself was not disgusting, but it had an unpleasant odor. Thank goodness we only booked one night here. We were so happy to leave the next morning. We didn't stay to try the breakfast, so I cannot comment on that. Next time I am just going to dish out more money to stay in a safe hotel closer to LA. The drive to LA was only about 10 miles. We won't be staying here again and definitely don't recommend it to anyone. Unless you don't mind be in the ghetto, and staying in a run down hotel.More</t>
   </si>
   <si>
+    <t>lotfam01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r144127341-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -593,6 +662,9 @@
     <t>The room was extremely cramped and there was no desk or table/chairs.  They advertised "free breakfast" and it was pretty much a scam.  This hotel has no designated area for a breakfast/kitchen.  They converted a regular hotel room to be the supposed breakfast area. There, they had stale doughnuts bought from a grocery store, along with 2 types of cereal. They also had a coffee and juice machine, which when we tried to get the beverages, they were watered down. We had stayed at a Rodeway Inn before and were expecting to have at least the essentials they had, but NO! Do not count on this factor to persuade your decision to book there.  Also, the parking is terrible because it's very limited and if you arrive late you'll have a hard time finding a spot.  The bed was a bit hard and uncomfortable. I had to kill two bugs in the bathroom.  The shower had no water pressure and it's a stand up shower, so there's no tub. When you try to stand outside of the shower to wait for the temperature to adjust, it sprays water all over the floor. The neighborhood is a little ghetto and made me feel a bit unsafe at night.  The price was cheap, they had free wi-fi access and cable TV channels.  I would not rate this a 2 star establishment. I've stayed at much better properties with that rating and for...The room was extremely cramped and there was no desk or table/chairs.  They advertised "free breakfast" and it was pretty much a scam.  This hotel has no designated area for a breakfast/kitchen.  They converted a regular hotel room to be the supposed breakfast area. There, they had stale doughnuts bought from a grocery store, along with 2 types of cereal. They also had a coffee and juice machine, which when we tried to get the beverages, they were watered down. We had stayed at a Rodeway Inn before and were expecting to have at least the essentials they had, but NO! Do not count on this factor to persuade your decision to book there.  Also, the parking is terrible because it's very limited and if you arrive late you'll have a hard time finding a spot.  The bed was a bit hard and uncomfortable. I had to kill two bugs in the bathroom.  The shower had no water pressure and it's a stand up shower, so there's no tub. When you try to stand outside of the shower to wait for the temperature to adjust, it sprays water all over the floor. The neighborhood is a little ghetto and made me feel a bit unsafe at night.  The price was cheap, they had free wi-fi access and cable TV channels.  I would not rate this a 2 star establishment. I've stayed at much better properties with that rating and for the price point.More</t>
   </si>
   <si>
+    <t>C0pilot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r140031734-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -614,6 +686,9 @@
     <t>Not bad, clean and economical but the rooms were a bit dated. However, the carpet was a little stained/darken by the asphalt oil, trailing into the room. The room has a fridge, microwave and Internet access is by tickets. If you have a lot of devices (i.e. iphone, ipods, ipads, laptops, etc.), you'll need more than one ticket! Breakfast consist of package pastries and bulk cereals with milk available.  The surrounding area was fine! …more like a quiet middle-class community; filled with working people. I walked our dog every morning and evening around the block and found the all houses and yard well kept; no sign of un-employment or vandals. The motel is good for an inexpensive place to stay when visiting the area.More</t>
   </si>
   <si>
+    <t>Brian D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r135470011-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -632,6 +707,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>EyeGive</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r133761389-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -653,6 +731,9 @@
     <t>Worst hotel/motel that I've been to.  I've usually relied on reviews and this one is so wrong.......if I can give no star I will definitely do so but I have to give a star to make a review.   The room is so small, the floor carpet is dirty....and this is so NOT acceptable...... used condom on the floor!  I reported to the front desk in the morning and left to go on sight seeing but after we came back the condom is still there.....terrible!  If you can avoid this place, please do yourself a favor.  I think the people who give possitive reviewed on this place are the people who works here.More</t>
   </si>
   <si>
+    <t>Heaton W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r123508239-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -671,6 +752,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>Liz-SD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r120513588-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -689,6 +773,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>NYCtoSantaMonica</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r116828389-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -707,6 +794,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>707chubbs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r115271145-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -720,6 +810,9 @@
   </si>
   <si>
     <t xml:space="preserve">I was a bit worried after reading these reviews. Place was not bad for the price. The room was cleaned, linens were fresh, parking was odd but free, a mini fridge was included, it's in walking distance to Ihop, AMPM, and other restaurants. It was not a bad area. Average urban LA. SO don't believe everything you read, it wasn't as bad as how some of these people made it out to be. Only problem I had was the room didn't have a hair dryer or coffee maker. Other than that it was pleasant stay. Once again for the price you cannot complain. </t>
+  </si>
+  <si>
+    <t>Allyson N</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r78863826-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
@@ -745,6 +838,9 @@
 2) We drop our luggage inside and head straight back to the car to spend the day in Long Beach. We return at about 10pm and attempt to turn in for the night, but in the sheets is what looks like fleas or some sort of bed bug. I go to the front desk and ask for a clean sheet to put over the bed and an extra pillow. The desk attendant claims that it is against policy to give me an extra sheet. He told me that I must be lying about not checking the bed when we arrived and that if I had complained earlier, then he would have changed rooms for me again. He then told me to go back to my room. I asked again if I could please have a sheet, so that I could go to sleep (by this time it's nearly 11:15pm) and he proceeded to tell me...1) their check in time is 3pm. We arrive at 2pm ask to check in early and they said we couldn't do so because our room was being cleaned. Finally at 3pm We get our key, go to our room, and walk into a utterly filthy room. The bed was unmade, dirty cups and trash on the floor and counters. Obviously, The room was never "being cleaned." Finally after having to show the Front Desk Attendant the dirty room, he gave us a new room.2) We drop our luggage inside and head straight back to the car to spend the day in Long Beach. We return at about 10pm and attempt to turn in for the night, but in the sheets is what looks like fleas or some sort of bed bug. I go to the front desk and ask for a clean sheet to put over the bed and an extra pillow. The desk attendant claims that it is against policy to give me an extra sheet. He told me that I must be lying about not checking the bed when we arrived and that if I had complained earlier, then he would have changed rooms for me again. He then told me to go back to my room. I asked again if I could please have a sheet, so that I could go to sleep (by this time it's nearly 11:15pm) and he proceeded to tell me that since I have a "bad attitude" I can wait till he's "ready" to give me the sheet and pillow. Completely disgusted with the lack of hospitality, I went back to the room and waited an 20 minutes before he finally came with a clean sheet and two extra pillows.3) The pillows he gave us had no pillow cases and one had a stain the size of a dinner plate that looked like blood. Furious, my mother brought the pillows back to the desk and requested pillow cases. The man claimed he "could not get any because it is against policy." They argued back and forth for about another 20 minutes, escalating to a point where the desk attendant stated he was going to "slap her if she didn't shut up". Finally another attendant appeared and settled the two. The new attendant then retrieved two pillow cases and gave them to us. We are not picky, annoying travelers. We are just a mother and a daughter visiting LA. I have never experienced such bad customer service in my entire life. I feel violated and honestly very very embarrassed. Do NOT come here, it may actually be a nice little place if they didn't have such horrendous staff.Please, please, please... make the best choice. DO NOT STAY HERE.More</t>
   </si>
   <si>
+    <t>HuckelberryMesa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r72791491-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -763,6 +859,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>chapparra613</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r70657038-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -778,6 +877,9 @@
     <t>Room smelledBed comforter was stainedRoom was tinyTowels were dingyWires hung from ceiling where fire alarm should have beenTV picture was horribleWater went everywhere when showered</t>
   </si>
   <si>
+    <t>sunkyung</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r39683782-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -796,6 +898,9 @@
     <t>December 2008</t>
   </si>
   <si>
+    <t>spensersims</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r30842033-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -817,6 +922,9 @@
     <t>This was my company’s third long-term stay at the Rodeway Inn near LA Live and each stay has been excellent. The staff is very friendly and outgoing and tries to make your stay as comfortable as possible. I was given a nice king room that had a courtyard view, and my co-workers were sharing a double queen room.  This hotel is a good choice for business travelers who want to stay with all comfort at great rates. The rates are very attractive, and what you get is a good deal for the facilities available.  My company does a lot of conventions and we switch hotels from the cramp hotels with no parking lot and high rates in downtown LA to this one.  It should be called the Rodeway Inn Convention Center since it’s so close to it and there are a lot of people from there, from what I have seen.More</t>
   </si>
   <si>
+    <t>nsooner45</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r30314435-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
   </si>
   <si>
@@ -833,6 +941,9 @@
   </si>
   <si>
     <t>I have been staying here for the past week and it has been a pleasant stay.  The staff is friendly and very helpful; I am here on business and meeting with a few new clients and invited my clients over for a meeting on this beautiful deck with a great astrosphere.  I asked David at the front desk about a refrigerator and a microwave and he said they have them for a small fee but since he had a few that were not in use currently he went ahead and had the maintenance man "Francisco" deliver it within 10 mins of our conversation.  It is nice of him to do that.  I am going to be here for another 2 weeks and staying here the next time I’m in town.  I highly recommend this place, and  the price was great with a lot of free amenities.More</t>
+  </si>
+  <si>
+    <t>jlrflo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32515-d271304-r20757469-Rodeway_Inn_Near_LA_Live-Huntington_Park_California.html</t>
@@ -1355,43 +1466,47 @@
       <c r="A2" t="n">
         <v>50608</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1409,50 +1524,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>50608</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1466,50 +1585,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>50608</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1523,41 +1646,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>50608</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
@@ -1576,50 +1703,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>50608</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1637,50 +1768,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>50608</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1698,50 +1833,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>50608</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1755,50 +1894,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>50608</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>99</v>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>92</v>
-      </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1812,50 +1955,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>50608</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1873,41 +2020,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>50608</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
@@ -1926,50 +2077,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>50608</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1987,50 +2142,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>50608</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2048,50 +2207,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>50608</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2109,50 +2272,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>50608</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="O15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2166,50 +2333,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>50608</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2223,41 +2394,45 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>50608</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -2276,50 +2451,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>50608</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2343,50 +2522,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>50608</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="O19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -2410,41 +2593,45 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>50608</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>179</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="J20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
@@ -2473,50 +2660,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>50608</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>185</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="J21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2540,41 +2731,45 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>50608</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
@@ -2603,50 +2798,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>50608</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="J23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="O23" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -2670,50 +2869,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>50608</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>206</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="O24" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -2737,50 +2940,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>50608</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="J25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -2804,50 +3011,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>50608</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>222</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="J26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="K26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -2871,50 +3082,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>50608</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>229</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="J27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="K27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -2938,50 +3153,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>50608</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>237</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="J28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="K28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="L28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="O28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3005,50 +3224,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>50608</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>244</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="J29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="K29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="O29" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3072,50 +3295,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>50608</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>251</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="J30" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="K30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="O30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3135,41 +3362,45 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>50608</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>258</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="J31" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="K31" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
@@ -3198,50 +3429,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>50608</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>264</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="J32" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="K32" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -3265,50 +3500,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>50608</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>272</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="J33" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="K33" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="L33" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3332,50 +3571,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>50608</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>279</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="J34" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="K34" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="L34" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -3399,50 +3642,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>50608</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>285</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="J35" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="K35" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="L35" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="O35" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -3466,50 +3713,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>50608</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>292</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="J36" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="K36" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3533,50 +3784,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>50608</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>300</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="J37" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="K37" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="L37" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3600,50 +3855,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>50608</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>307</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="J38" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="K38" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="L38" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="O38" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -3667,7 +3926,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
